--- a/Docs/gantt-chart_L.xlsx
+++ b/Docs/gantt-chart_L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangcong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3511580ec5cbb87e/601.656CIS2/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE75C3-7149-495A-9654-BB2D988ABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{06AE75C3-7149-495A-9654-BB2D988ABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9DE6CB5-0F6D-4392-9E57-54F78E2C5D96}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -1497,73 +1497,76 @@
     </r>
   </si>
   <si>
+    <t>Train Model</t>
+  </si>
+  <si>
+    <t>Literature review</t>
+  </si>
+  <si>
+    <t>Prepartion</t>
+  </si>
+  <si>
+    <t>Do registration between CT Scan and X-ray image from loop-x</t>
+  </si>
+  <si>
+    <t>Run SyntheX to make X-ray image domain generlization</t>
+  </si>
+  <si>
+    <t>Train deepFluoroLabeling model</t>
+  </si>
+  <si>
+    <t>Design a pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the registration </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualization </t>
+  </si>
+  <si>
+    <t>Documentaion for Synthex</t>
+  </si>
+  <si>
+    <t>Loop-X  learning-section</t>
+  </si>
+  <si>
+    <t>Test for wirless memory stick</t>
+  </si>
+  <si>
+    <t>Integration all codes in an executable program</t>
+  </si>
+  <si>
+    <t>Validating the program on phantom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Reality visualization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a report  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a report </t>
+  </si>
+  <si>
+    <t>Validating the program on cadaveric images</t>
+  </si>
+  <si>
+    <t>Extration example Ct scan and X-ray image</t>
+  </si>
+  <si>
     <t>Real-time Integration of Fully Automatic 2D/3D Pelvic Registration with Robotic X-ray Acquisition</t>
-  </si>
-  <si>
-    <t>Train Model</t>
-  </si>
-  <si>
-    <t>Literature review</t>
-  </si>
-  <si>
-    <t>Prepartion</t>
-  </si>
-  <si>
-    <t>Do registration between CT Scan and X-ray image from loop-x</t>
-  </si>
-  <si>
-    <t>Run SyntheX to make X-ray image domain generlization</t>
-  </si>
-  <si>
-    <t>Train deepFluoroLabeling model</t>
-  </si>
-  <si>
-    <t>Design a pipeline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Automatic data acquistion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Using deepFluoroLabeing to find landmarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do the registration </t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualization </t>
-  </si>
-  <si>
-    <t>Documentaion for Synthex</t>
-  </si>
-  <si>
-    <t>Loop-X  learning-section</t>
-  </si>
-  <si>
-    <t>Test for wirless memory stick</t>
-  </si>
-  <si>
-    <t>Integration all codes in an executable program</t>
-  </si>
-  <si>
-    <t>Validating the program on phantom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed Reality visualization </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a report  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a report </t>
-  </si>
-  <si>
-    <t>Validating the program on cadaveric images</t>
-  </si>
-  <si>
-    <t>Extration example Ct scan and X-ray image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1571,9 +1574,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1840,85 +1843,85 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="黑体"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1997,6 +2000,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2587,7 +2596,7 @@
     <xf numFmtId="1" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2611,10 +2620,10 @@
     <xf numFmtId="1" fontId="42" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="49" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2776,37 +2785,37 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3055,7 +3064,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -3639,8 +3648,8 @@
   <dimension ref="A1:BN29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3660,36 +3669,36 @@
   <sheetData>
     <row r="1" spans="1:66" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="96"/>
       <c r="F1" s="96"/>
       <c r="I1" s="70"/>
-      <c r="AH1" s="114" t="s">
+      <c r="AH1" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="114"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="120"/>
+      <c r="BB1" s="120"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -3700,7 +3709,7 @@
       <c r="F2" s="97"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="2"/>
       <c r="H3" s="1"/>
@@ -3727,11 +3736,11 @@
       <c r="B4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="122">
         <v>44956</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="103"/>
       <c r="G4" s="60" t="s">
         <v>67</v>
@@ -3741,178 +3750,178 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="115" t="str">
+      <c r="K4" s="114" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="115" t="str">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="114" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="115" t="str">
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="114" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="115" t="str">
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="114" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="115" t="str">
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="114" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="117"/>
-      <c r="AT4" s="115" t="str">
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="114" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="115" t="str">
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="114" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="115" t="str">
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="115"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="114" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="117"/>
+      <c r="BI4" s="115"/>
+      <c r="BJ4" s="115"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="115"/>
+      <c r="BM4" s="115"/>
+      <c r="BN4" s="116"/>
     </row>
     <row r="5" spans="1:66" s="98" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="103"/>
       <c r="B5" s="106"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
       <c r="F5" s="103"/>
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
       <c r="I5" s="103"/>
       <c r="J5" s="99"/>
-      <c r="K5" s="118">
+      <c r="K5" s="117">
         <f>K6</f>
         <v>45019</v>
       </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="118">
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="117">
         <f>R6</f>
         <v>45026</v>
       </c>
-      <c r="S5" s="119"/>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="118">
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="117">
         <f>Y6</f>
         <v>45033</v>
       </c>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="118">
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="118"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="117">
         <f>AF6</f>
         <v>45040</v>
       </c>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="118">
+      <c r="AG5" s="118"/>
+      <c r="AH5" s="118"/>
+      <c r="AI5" s="118"/>
+      <c r="AJ5" s="118"/>
+      <c r="AK5" s="118"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="117">
         <f>AM6</f>
         <v>45047</v>
       </c>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="118">
+      <c r="AN5" s="118"/>
+      <c r="AO5" s="118"/>
+      <c r="AP5" s="118"/>
+      <c r="AQ5" s="118"/>
+      <c r="AR5" s="118"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="117">
         <f>AT6</f>
         <v>45054</v>
       </c>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="120"/>
-      <c r="BA5" s="118">
+      <c r="AU5" s="118"/>
+      <c r="AV5" s="118"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="118"/>
+      <c r="AY5" s="118"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="117">
         <f>BA6</f>
         <v>45061</v>
       </c>
-      <c r="BB5" s="119"/>
-      <c r="BC5" s="119"/>
-      <c r="BD5" s="119"/>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="120"/>
-      <c r="BH5" s="118">
+      <c r="BB5" s="118"/>
+      <c r="BC5" s="118"/>
+      <c r="BD5" s="118"/>
+      <c r="BE5" s="118"/>
+      <c r="BF5" s="118"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="117">
         <f>BH6</f>
         <v>45068</v>
       </c>
-      <c r="BI5" s="119"/>
-      <c r="BJ5" s="119"/>
-      <c r="BK5" s="119"/>
-      <c r="BL5" s="119"/>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="120"/>
+      <c r="BI5" s="118"/>
+      <c r="BJ5" s="118"/>
+      <c r="BK5" s="118"/>
+      <c r="BL5" s="118"/>
+      <c r="BM5" s="118"/>
+      <c r="BN5" s="119"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -3930,7 +3939,7 @@
         <v>45019</v>
       </c>
       <c r="L6" s="44">
-        <f t="shared" ref="L6:AQ7" si="0">K6+1</f>
+        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
         <v>45020</v>
       </c>
       <c r="M6" s="44">
@@ -4150,7 +4159,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="2" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" s="2" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
@@ -4487,7 +4496,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="95">
@@ -4570,7 +4579,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="110" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="95">
@@ -4651,7 +4660,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="95">
@@ -4735,7 +4744,7 @@
         <v>1.4</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="95">
@@ -4819,7 +4828,7 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="68"/>
@@ -4849,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="102"/>
@@ -4927,7 +4936,7 @@
         <v>2.1</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="95">
@@ -5011,7 +5020,7 @@
         <v>2.2</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="95">
@@ -5095,7 +5104,7 @@
         <v>2.3</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="68"/>
       <c r="E17" s="95">
@@ -5179,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="102"/>
@@ -5257,7 +5266,7 @@
         <v>3.1</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="95">
@@ -5341,7 +5350,7 @@
         <v>3.2</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="95">
@@ -5425,7 +5434,7 @@
         <v>3.3</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="95">
@@ -5509,7 +5518,7 @@
         <v>3.4</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="68"/>
@@ -5544,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="102"/>
@@ -5622,7 +5631,7 @@
         <v>4.1</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="95">
@@ -5706,7 +5715,7 @@
         <v>4.2</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="68"/>
       <c r="E25" s="95">
@@ -5790,7 +5799,7 @@
         <v>4.3</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="95">
@@ -5874,7 +5883,7 @@
         <v>4.4</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="95">
@@ -5958,7 +5967,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="102"/>
@@ -6036,7 +6045,7 @@
         <v>5.1</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="95">
@@ -6117,14 +6126,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AH1:BB1"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="R4:X4"/>
@@ -6136,6 +6137,14 @@
     <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H29">
@@ -6419,6 +6428,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="67" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B46" r:id="rId2" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -6489,10 +6499,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="123"/>
     </row>
     <row r="15" spans="1:3" s="72" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="79"/>
@@ -6553,10 +6563,10 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="121"/>
+      <c r="B24" s="123"/>
     </row>
     <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="80"/>
@@ -6629,10 +6639,10 @@
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="123"/>
     </row>
     <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B39" s="78" t="s">
@@ -6663,10 +6673,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="121"/>
+      <c r="B49" s="123"/>
     </row>
     <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B50" s="78" t="s">
@@ -6761,10 +6771,10 @@
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="121"/>
+      <c r="B65" s="123"/>
     </row>
     <row r="66" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B66" s="78" t="s">
@@ -6772,10 +6782,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="123"/>
     </row>
     <row r="69" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -7130,6 +7140,7 @@
       <c r="C29" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="67" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
